--- a/report/reliability/comb/Graduação (licenciatura)-Educação a Distância.xlsx
+++ b/report/reliability/comb/Graduação (licenciatura)-Educação a Distância.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="482">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2232,11 +2232,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3142,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3797,6 +3792,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3824,14 +3820,13 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3840,6 +3835,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3855,14 +3851,13 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3870,6 +3865,7 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3885,20 +3881,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3914,19 +3910,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3954,14 +3950,13 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3970,6 +3965,7 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3985,14 +3981,13 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4000,6 +3995,7 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4015,20 +4011,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4044,21 +4040,19 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4134,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7223097365062683</v>
+        <v>0.7199386191019137</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.753786533908641</v>
+        <v>0.7538264043445572</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8717149317108129</v>
+        <v>0.8840129398529016</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.20326746791095845</v>
+        <v>0.20330226337243998</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.0615162764044124</v>
+        <v>3.0621740822263135</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03957694052988308</v>
+        <v>0.03871020521918284</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.7853982300884956</v>
+        <v>2.311946902654867</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7059488322019633</v>
+        <v>0.6723879097096804</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.15565015534374765</v>
+        <v>0.1466480448292945</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7016599913374831</v>
+        <v>0.7074150471689417</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.725705760198685</v>
+        <v>0.7416155042205352</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8565856337365508</v>
+        <v>0.8800942029183639</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.19388643559780896</v>
+        <v>0.20693292063529864</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.6457200148437323</v>
+        <v>2.8702012556260943</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.042671153538400994</v>
+        <v>0.04072974318925206</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04288214124483375</v>
+        <v>0.07332908999056416</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.14703536208301857</v>
+        <v>0.13073914664529515</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7039878722241736</v>
+        <v>0.7110502679994206</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7331684086359403</v>
+        <v>0.7499742469940385</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8610857403117153</v>
+        <v>0.8812071607649692</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.19986512227849856</v>
+        <v>0.21426259083892749</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.747682179939555</v>
+        <v>2.999587994346151</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.04240100963760405</v>
+        <v>0.040339702728322914</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04334349573890724</v>
+        <v>0.07167094022727316</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.15818307312964708</v>
+        <v>0.15311723755784823</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4260,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.6982898238294505</v>
+        <v>0.7035212824908879</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7239626287498868</v>
+        <v>0.7324403767646102</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8473924819664942</v>
+        <v>0.86447165287859</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.19252411704270694</v>
+        <v>0.19927117410704975</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.62269788134562</v>
+        <v>2.7374847068020935</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.042970893824144485</v>
+        <v>0.041584032287760544</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.039918006326858005</v>
+        <v>0.053701530587899414</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1474763611686225</v>
+        <v>0.14703536208301857</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7068572024979561</v>
+        <v>0.6863502731263159</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7320444160947785</v>
+        <v>0.7275172218080236</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8501518015677549</v>
+        <v>0.8616012168428135</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1989491254149141</v>
+        <v>0.19531566676434725</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.731961787942101</v>
+        <v>2.669956709320743</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.041615551623462727</v>
+        <v>0.04273528018541471</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03791485827723154</v>
+        <v>0.053289431995189755</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.15818307312964708</v>
+        <v>0.14626072757557046</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.6995580675224725</v>
+        <v>0.6973423791881187</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7420397321819562</v>
+        <v>0.7303014833373461</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.832931663529943</v>
+        <v>0.8604229689841525</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.20729667476926375</v>
+        <v>0.19753973857670046</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.8765659861438997</v>
+        <v>2.7078439005685246</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.042631975093739005</v>
+        <v>0.041225651326286035</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03562036042289222</v>
+        <v>0.05305617663831253</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.16055804834791157</v>
+        <v>0.14703536208301857</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.709912972834615</v>
+        <v>0.7076894184957656</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7449545910611922</v>
+        <v>0.7388727362825526</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8359400868180906</v>
+        <v>0.8637419782601071</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.20981952513842678</v>
+        <v>0.2046017596889776</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.920870421313588</v>
+        <v>2.8295503340549257</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.04120607392259948</v>
+        <v>0.04095606667793056</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03570371332731833</v>
+        <v>0.0549626378852749</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.15818307312964708</v>
+        <v>0.15311723755784823</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7124765646394641</v>
+        <v>0.6978970274913047</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7501590645837581</v>
+        <v>0.7322325315585536</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8441489197035665</v>
+        <v>0.8569532597845912</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.21442861273258834</v>
+        <v>0.1991020398464458</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.002546653669752</v>
+        <v>2.7345836139862274</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04066141989063627</v>
+        <v>0.04081700705340682</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.03617132988784627</v>
+        <v>0.054131439222788395</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.16382545119269362</v>
+        <v>0.14703536208301857</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7097809646978881</v>
+        <v>0.6986697122317982</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7437121610576164</v>
+        <v>0.7302615612712896</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8400110302744286</v>
+        <v>0.8671375323413157</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.20873913722828027</v>
+        <v>0.19750761207901</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>2.901862859067656</v>
+        <v>2.7072951289888287</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04085162943420893</v>
+        <v>0.040569058157236944</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0373272253957337</v>
+        <v>0.05755683985733245</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.16382545119269362</v>
+        <v>0.14703536208301857</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7072748615237886</v>
+        <v>0.7036037382161973</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7423541311349613</v>
+        <v>0.7415168939813203</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.872316528257044</v>
+        <v>0.8862952146845845</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.20756681280585298</v>
+        <v>0.20684849063505978</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>2.8812964648147528</v>
+        <v>2.8687247898039927</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.04203417378827201</v>
+        <v>0.04108181400713272</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04684323599328449</v>
+        <v>0.07392279308602402</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.15311723755784823</v>
+        <v>0.12303267127618642</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7201310365170763</v>
+        <v>0.7190863406980197</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7527233886706356</v>
+        <v>0.7549835363465572</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8741236286541412</v>
+        <v>0.8892368710978394</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.21675038402074726</v>
+        <v>0.21882536512950643</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.0440541247470914</v>
+        <v>3.081358391550471</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.04020087285059331</v>
+        <v>0.03888306573563192</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04373066245716659</v>
+        <v>0.06997263859580116</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.16055804834791157</v>
+        <v>0.1474763611686225</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.6874111513115728</v>
+        <v>0.6891560554835857</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7225501868538567</v>
+        <v>0.7293418117529471</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8425368669023459</v>
+        <v>0.8601221603732561</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.19142947265789084</v>
+        <v>0.1967693780629021</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.604255445914689</v>
+        <v>2.6946970142547992</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.04460992083227087</v>
+        <v>0.04283287989554935</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.041805970963668664</v>
+        <v>0.0688438069017261</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.13330770351998752</v>
+        <v>0.12303267127618642</v>
       </c>
     </row>
     <row r="22">
@@ -4527,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.6963840555088612</v>
+        <v>0.6971390660710722</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.730815736929879</v>
+        <v>0.7365443718598013</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8490296881047912</v>
+        <v>0.8641895675737543</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.19795419524452254</v>
+        <v>0.20265042410505413</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.7149274203280807</v>
+        <v>2.7957055882968147</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.04337575828010033</v>
+        <v>0.04175213528666589</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.041901134660684146</v>
+        <v>0.06826665598389035</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1474763611686225</v>
+        <v>0.14626072757557046</v>
       </c>
     </row>
     <row r="23">
@@ -4598,16 +4592,16 @@
         <v>113.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.5215984400627027</v>
+        <v>0.4240837508598384</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.6020882234473213</v>
+        <v>0.4872776019328654</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.5538869155818528</v>
+        <v>0.40270695741747076</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.44228762364749125</v>
+        <v>0.33149122135496306</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.566371681415929</v>
@@ -4624,16 +4618,16 @@
         <v>113.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.4851678882396047</v>
+        <v>0.3886823192213886</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.549319390833645</v>
+        <v>0.4225886010628215</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.48792776261074194</v>
+        <v>0.34069300066814995</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.3911939758122546</v>
+        <v>0.28077334808178517</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>3.8849557522123894</v>
@@ -4650,22 +4644,22 @@
         <v>113.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5346217976457435</v>
+        <v>0.5765322281463553</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6141122621100051</v>
+        <v>0.5548973875524914</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5877356141486358</v>
+        <v>0.5655831479878104</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.43890837901927077</v>
+        <v>0.5333468946058744</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4070796460176993</v>
+        <v>0.584070796460177</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0319638710245014</v>
+        <v>0.4950769008954597</v>
       </c>
     </row>
     <row r="30">
@@ -4676,22 +4670,22 @@
         <v>113.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.46400825408808954</v>
+        <v>0.6214370263458773</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5574041237776308</v>
+        <v>0.5898072553671261</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5289621976978381</v>
+        <v>0.6055741168870714</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.33831585145910764</v>
+        <v>0.45451353550849727</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.504424778761062</v>
+        <v>1.8761061946902655</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2329109993173366</v>
+        <v>1.7885186576108167</v>
       </c>
     </row>
     <row r="31">
@@ -4702,22 +4696,22 @@
         <v>113.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5656935719008563</v>
+        <v>0.609969129320155</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.4837273351884574</v>
+        <v>0.5701784072187976</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.49380004783056947</v>
+        <v>0.5875602830970856</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.39501290553628937</v>
+        <v>0.41252440817353286</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.8761061946902655</v>
+        <v>2.168141592920354</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.7885186576108167</v>
+        <v>2.026179792417497</v>
       </c>
     </row>
     <row r="32">
@@ -4728,22 +4722,22 @@
         <v>113.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5555101394269834</v>
+        <v>0.5039122974598583</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.4614602594994596</v>
+        <v>0.5078515797920756</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.46876632828617254</v>
+        <v>0.5151220044925033</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.35556855542612675</v>
+        <v>0.45748208536541746</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.168141592920354</v>
+        <v>0.6460176991150443</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.026179792417497</v>
+        <v>0.4803338493452252</v>
       </c>
     </row>
     <row r="33">
@@ -4754,16 +4748,16 @@
         <v>113.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4975706837422112</v>
+        <v>0.567584659559066</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.42077972466835023</v>
+        <v>0.556390104963699</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.4085494517713218</v>
+        <v>0.5734147932233401</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.31663101559815776</v>
+        <v>0.3904520654617544</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>2.168141592920354</v>
@@ -4780,16 +4774,16 @@
         <v>113.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.5421500074204432</v>
+        <v>0.592027478480632</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.4709959337759689</v>
+        <v>0.5704619439918466</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.46390360645317485</v>
+        <v>0.5664432554757913</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.34847142789182933</v>
+        <v>0.39911452751284665</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>2.079646017699115</v>
@@ -4806,16 +4800,16 @@
         <v>113.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.45269523094598857</v>
+        <v>0.4633133623085985</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.48134305422564877</v>
+        <v>0.48802275037845344</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.38324085164340993</v>
+        <v>0.3878683311160365</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.34209598978269085</v>
+        <v>0.34789714254667004</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>3.353982300884956</v>
@@ -4832,16 +4826,16 @@
         <v>113.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.3557026313609059</v>
+        <v>0.35369530049308634</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.4002874046965057</v>
+        <v>0.38231921624016685</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.3011265626831417</v>
+        <v>0.2785344548989545</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.22072859585473398</v>
+        <v>0.2113976790692274</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.911504424778761</v>
@@ -4858,16 +4852,16 @@
         <v>113.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6059681464616417</v>
+        <v>0.573788186750875</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6237737662828913</v>
+        <v>0.5769773286658604</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6038819336232376</v>
+        <v>0.5468000308295865</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4982093995750639</v>
+        <v>0.45413929867543135</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>2.309734513274336</v>
@@ -4884,16 +4878,16 @@
         <v>113.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5430215728831035</v>
+        <v>0.519471726085345</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5661855345502108</v>
+        <v>0.5250733572771903</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5362793196989901</v>
+        <v>0.4890030841496267</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.42654312016559637</v>
+        <v>0.39292922269960656</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>2.1946902654867255</v>
@@ -4998,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.035398230088495575</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.035398230088495575</v>
+        <v>0.584070796460177</v>
       </c>
       <c r="D45" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.4336283185840708</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.40707964601769914</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08849557522123894</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5024,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.035398230088495575</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C46" t="n" s="110">
+        <v>0.07079646017699115</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.02654867256637168</v>
       </c>
-      <c r="D46" t="n" s="111">
+      <c r="E46" t="n" s="112">
+        <v>0.23893805309734514</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.20353982300884957</v>
+      </c>
+      <c r="G46" t="n" s="114">
         <v>0.04424778761061947</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.4778761061946903</v>
-      </c>
-      <c r="F46" t="n" s="113">
-        <v>0.12389380530973451</v>
-      </c>
-      <c r="G46" t="n" s="114">
-        <v>0.2920353982300885</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,19 +5047,19 @@
         <v>0.415929203539823</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.07079646017699115</v>
+        <v>0.035398230088495575</v>
       </c>
       <c r="D47" t="n" s="111">
         <v>0.02654867256637168</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.23893805309734514</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.20353982300884957</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.04424778761061947</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5076,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.415929203539823</v>
+        <v>0.35398230088495575</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.035398230088495575</v>
+        <v>0.6460176991150443</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.02654867256637168</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.17699115044247787</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.17699115044247787</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.168141592920354</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5329,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8049753301622005</v>
+        <v>0.8556746452784723</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8073745869316596</v>
+        <v>0.9656996433970642</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.7923197172430334</v>
+        <v>0.9501406677701436</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5116843557631857</v>
+        <v>0.9037048464060092</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>4.191423001103266</v>
+        <v>28.154215846094388</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.02883287937548575</v>
+        <v>0.006736008767565096</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.59070796460177</v>
+        <v>1.5427728613569323</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.8176771507645467</v>
+        <v>1.3974144848935306</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5014615220466241</v>
+        <v>0.9070199359024055</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.7724592097503439</v>
+        <v>0.9517145967522453</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.7691164517719127</v>
+        <v>0.9555877401672499</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.730112909430084</v>
+        <v>0.9149526263893873</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5261552634728986</v>
+        <v>0.9149526263893875</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>3.3311877683554605</v>
+        <v>21.516305267190898</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.035410600625564954</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.028866817359501203</v>
-      </c>
+        <v>0.00867733376061441</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5315242998593298</v>
+        <v>0.9149526263893873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.7934340825904385</v>
+        <v>0.5898322448456907</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.7998399774361973</v>
+        <v>0.9512432658164129</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7451122205980719</v>
+        <v>0.9070199359024055</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5711836949126233</v>
+        <v>0.9070199359024054</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>3.99600263424851</v>
+        <v>19.509987322666724</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.03181996677513163</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.013331691158886829</v>
-      </c>
+        <v>0.016497789248960712</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5564420665704176</v>
+        <v>0.9070199359024055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7302641663686065</v>
+        <v>0.6275151935006453</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7415873270043134</v>
+        <v>0.9413183210008711</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.6584650354865768</v>
+        <v>0.8891419769262349</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.48890752581644364</v>
+        <v>0.8891419769262348</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>2.8697792504034503</v>
+        <v>16.041093865341566</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.04187195081159645</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0013765790738582684</v>
-      </c>
+        <v>0.018543173207541116</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.47139874423391837</v>
+        <v>0.8891419769262349</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7120592275988399</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7191493228479895</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.6443613772486096</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.46049093885077746</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.560610962880995</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.047302335196015094</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.01037221535640591</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.47139874423391837</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>113.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9358018978974509</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.963493503982127</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.933391985864471</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9182972129610969</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.584070796460177</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4950769008954597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>113.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7501673957792233</v>
+        <v>0.9738391576602901</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7824594339127536</v>
+        <v>0.9662269278651437</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.6660108911975806</v>
+        <v>0.940684081014247</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.5945510172945485</v>
+        <v>0.9235359659041498</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.566371681415929</v>
+        <v>1.8761061946902655</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.8543596828984419</v>
+        <v>1.7885186576108167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>113.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7289940637828191</v>
+        <v>0.9807718227507288</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7400380775678697</v>
+        <v>0.9723872640241376</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6062981513739466</v>
+        <v>0.9547580323039038</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5364109997991834</v>
+        <v>0.930923967501496</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8849557522123894</v>
+        <v>2.168141592920354</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9613254650795259</v>
+        <v>2.026179792417497</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>113.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8261542707265619</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8175505863611876</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7636998080591814</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6715311597810978</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4070796460176993</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0319638710245014</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.415929203539823</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.584070796460177</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>113.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8730832222170805</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8443218978022614</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7984734862138494</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7132305570182269</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.504424778761062</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2329109993173366</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.415929203539823</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.07079646017699115</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.02654867256637168</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.23893805309734514</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.20353982300884957</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.04424778761061947</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.0</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04424778761061947</v>
+        <v>0.035398230088495575</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.008849557522123894</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3805309734513274</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4690265486725664</v>
+        <v>0.17699115044247787</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09734513274336283</v>
+        <v>0.168141592920354</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.36283185840707965</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24778761061946902</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.34513274336283184</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.4336283185840708</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.40707964601769914</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08849557522123894</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04424778761061947</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.4778761061946903</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.12389380530973451</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.2920353982300885</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5876,28 +5783,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.9224631953364293</v>
+        <v>0.8345879088440193</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9249138385618543</v>
+        <v>0.9471165043924885</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.8603160116251465</v>
+        <v>0.9339950179097065</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.8603160116251467</v>
+        <v>0.8565244865482841</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>12.318033321276866</v>
+        <v>17.909491298036684</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.014317673194529631</v>
+        <v>0.010785093158896057</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.1238938053097347</v>
+        <v>1.631268436578171</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.7885186576108167</v>
+        <v>1.335833097063823</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.8603160116251466</v>
@@ -5947,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.8603160116251466</v>
+        <v>0.9224631953364293</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.8603160116251466</v>
+        <v>0.9249138385618543</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.7401436398585992</v>
+        <v>0.8603160116251465</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.8603160116251466</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8603160116251466</v>
-      </c>
+        <v>0.8603160116251467</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>12.318033321276866</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.014317673194529631</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.8603160116251466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.5397335783187875</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.8854554644423793</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.7944549869417061</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7944549869417061</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>7.730228771995492</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.026332695858992432</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.794454986941706</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.7401436398585992</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.8603160116251466</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.7401436398585992</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.8603160116251466</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.6340784833877906</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9555058338111619</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.914802461077999</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.9148024610779992</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>21.474856495925554</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.015931107094324923</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.9148024610779991</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>113.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9607626948000345</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9644469948175345</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8945556582694411</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.8603160116251466</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.168141592920354</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.762215807215737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>113.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9679528130500166</v>
+        <v>0.9079710668150544</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9644469948175345</v>
+        <v>0.9496440072739242</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8945556582694411</v>
+        <v>0.9235355237450759</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.8603160116251467</v>
+        <v>0.8829540424133863</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.6460176991150443</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.4803338493452252</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>113.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9672103015494974</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9727294942029223</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9648830130705182</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.9009985887491131</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.168141592920354</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.762215807215737</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>113.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9592034020098399</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9305455158262562</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8687399048869713</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8586111152258078</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.079646017699115</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.9463408567670275</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.35398230088495575</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.6460176991150443</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.35398230088495575</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.04424778761061947</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.017699115044247787</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.2743362831858407</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2831858407079646</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.02654867256637168</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.35398230088495575</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1415929203539823</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.05309734513274336</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.13274336283185842</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.1592920353982301</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.1592920353982301</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6249,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8580044804411511</v>
+        <v>0.6377302010802366</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8580435287318922</v>
+        <v>0.6407491457787691</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391825</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7513802411216788</v>
+        <v>0.47139874423391825</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>6.044412918036954</v>
+        <v>1.7835702775648459</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.026710740464846776</v>
+        <v>0.06755456350970453</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.252212389380531</v>
+        <v>3.725663716814159</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1728397577440546</v>
+        <v>0.7791683708863145</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
     </row>
     <row r="7">
@@ -6320,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5645722667480719</v>
+        <v>0.2222167760653151</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5645722667480719</v>
+        <v>0.2222167760653151</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.5645722667480719</v>
+        <v>0.2222167760653151</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.7513802411216787</v>
+        <v>0.47139874423391837</v>
       </c>
     </row>
     <row r="13">
@@ -6405,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>113.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9366191064819473</v>
+        <v>0.8390531166259277</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9357831589427325</v>
+        <v>0.8577291950942086</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8111573546081396</v>
+        <v>0.5889038632490168</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.7513802411216787</v>
+        <v>0.4713987442339185</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>2.309734513274336</v>
+        <v>3.566371681415929</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.2612327162747443</v>
+        <v>0.8543596828984419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>113.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9349419175222998</v>
+        <v>0.8753368319932523</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9357831589427325</v>
+        <v>0.8577291950942086</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8111573546081396</v>
+        <v>0.5889038632490168</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7513802411216784</v>
+        <v>0.47139874423391837</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.1946902654867255</v>
+        <v>3.8849557522123894</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2454087616381648</v>
+        <v>0.9613254650795259</v>
       </c>
     </row>
     <row r="19">
@@ -6473,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6493,22 +6487,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.1504424778761062</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.061946902654867256</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.2831858407079646</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.336283185840708</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="F23" t="n" s="458">
-        <v>0.168141592920354</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="G23" t="n" s="459">
         <v>0.0</v>
@@ -6516,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.1415929203539823</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.10619469026548672</v>
+        <v>0.035398230088495575</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.3274336283185841</v>
+        <v>0.36283185840707965</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.26548672566371684</v>
+        <v>0.24778761061946902</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.1592920353982301</v>
+        <v>0.34513274336283184</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6613,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9517145967522453</v>
+        <v>0.5558927884409866</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9555877401672499</v>
+        <v>0.5587108465527966</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069744</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.9149526263893875</v>
+        <v>0.38764660458069766</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>21.516305267190898</v>
+        <v>1.266087875009694</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.00867733376061441</v>
+        <v>0.08287055558831295</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>2.02212389380531</v>
+        <v>3.1327433628318584</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.8665157816329072</v>
+        <v>0.9613460130273545</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
     </row>
     <row r="7">
@@ -6684,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.8371383085368378</v>
+        <v>0.15026989004294344</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.8371383085368378</v>
+        <v>0.15026989004294344</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.8371383085368378</v>
+        <v>0.15026989004294344</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069755</v>
       </c>
     </row>
     <row r="13">
@@ -6769,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>113.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9757156130321606</v>
+        <v>0.8105724339915826</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9785071860720768</v>
+        <v>0.8329605646669889</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9359730057341998</v>
+        <v>0.5186118464823384</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9149526263893873</v>
+        <v>0.3876466045806975</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>1.8761061946902655</v>
+        <v>3.353982300884956</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.7885186576108167</v>
+        <v>1.0849650585412292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>113.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9811301012254893</v>
+        <v>0.8540618475374323</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9785071860720768</v>
+        <v>0.8329605646669889</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9359730057341998</v>
+        <v>0.5186118464823384</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9149526263893873</v>
+        <v>0.38764660458069766</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>2.168141592920354</v>
+        <v>2.911504424778761</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>2.026179792417497</v>
+        <v>1.2215148829855682</v>
       </c>
     </row>
     <row r="19">
@@ -6852,61 +6846,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="567">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.415929203539823</v>
+        <v>0.017699115044247787</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.07079646017699115</v>
+        <v>0.11504424778761062</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.02654867256637168</v>
+        <v>0.017699115044247787</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.23893805309734514</v>
+        <v>0.19469026548672566</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.20353982300884957</v>
+        <v>0.6548672566371682</v>
       </c>
       <c r="G23" t="n" s="573">
-        <v>0.04424778761061947</v>
-      </c>
-      <c r="H23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.415929203539823</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.035398230088495575</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.02654867256637168</v>
+        <v>0.017699115044247787</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.17699115044247787</v>
+        <v>0.46017699115044247</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.17699115044247787</v>
+        <v>0.35398230088495575</v>
       </c>
       <c r="G24" t="n" s="573">
-        <v>0.168141592920354</v>
-      </c>
-      <c r="H24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,7 +6921,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="576">
+      <c r="A1" t="s" s="575">
         <v>48</v>
       </c>
     </row>
@@ -6951,66 +6936,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="590">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="604">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="604">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="604">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="604">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="604">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="604">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="604">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="604">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="604">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="605">
-        <v>0.5558927884409866</v>
-      </c>
-      <c r="B6" t="n" s="606">
-        <v>0.5587108465527966</v>
-      </c>
-      <c r="C6" t="n" s="607">
-        <v>0.38764660458069744</v>
-      </c>
-      <c r="D6" t="n" s="608">
-        <v>0.38764660458069766</v>
-      </c>
-      <c r="E6" t="n" s="609">
-        <v>1.266087875009694</v>
-      </c>
-      <c r="F6" t="n" s="610">
-        <v>0.08287055558831295</v>
-      </c>
-      <c r="G6" t="n" s="611">
-        <v>3.1327433628318584</v>
-      </c>
-      <c r="H6" t="n" s="612">
-        <v>0.9613460130273545</v>
-      </c>
-      <c r="I6" t="n" s="613">
-        <v>0.38764660458069755</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8580044804411511</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.8580435287318922</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7513802411216788</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>6.044412918036954</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.026710740464846776</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>2.252212389380531</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.1728397577440546</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.7513802411216787</v>
       </c>
     </row>
     <row r="7">
@@ -7024,81 +7009,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="617">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="631">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="631">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="631">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="631">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="631">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="631">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="631">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="631">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="627">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="632">
-        <v>0.38764660458069755</v>
-      </c>
-      <c r="C11" t="n" s="633">
-        <v>0.38764660458069755</v>
-      </c>
-      <c r="D11" t="n" s="634">
-        <v>0.15026989004294344</v>
-      </c>
-      <c r="E11" t="n" s="635">
-        <v>0.38764660458069755</v>
-      </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" t="n" s="638">
-        <v>0.38764660458069755</v>
-      </c>
-      <c r="I11" t="n" s="639">
-        <v>0.38764660458069755</v>
+      <c r="A11" t="s" s="626">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.5645722667480719</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.7513802411216787</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="627">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="632">
-        <v>0.15026989004294344</v>
-      </c>
-      <c r="C12" t="n" s="633">
-        <v>0.38764660458069755</v>
-      </c>
-      <c r="D12" s="634"/>
-      <c r="E12" s="635"/>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" t="n" s="638">
-        <v>0.15026989004294344</v>
-      </c>
-      <c r="I12" t="n" s="639">
-        <v>0.38764660458069755</v>
+      <c r="A12" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.5645722667480719</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.5645722667480719</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.7513802411216787</v>
       </c>
     </row>
     <row r="13">
@@ -7112,84 +7097,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="643">
+      <c r="A15" t="s" s="642">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="657">
+      <c r="B16" t="s" s="656">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="657">
+      <c r="C16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="657">
+      <c r="D16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="657">
+      <c r="E16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="657">
+      <c r="F16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="657">
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="657">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="653">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="658">
+      <c r="A17" t="s" s="652">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>113.0</v>
       </c>
-      <c r="C17" t="n" s="659">
-        <v>0.8105724339915826</v>
-      </c>
-      <c r="D17" t="n" s="660">
-        <v>0.8329605646669889</v>
-      </c>
-      <c r="E17" t="n" s="661">
-        <v>0.5186118464823384</v>
-      </c>
-      <c r="F17" t="n" s="662">
-        <v>0.3876466045806975</v>
-      </c>
-      <c r="G17" t="n" s="663">
-        <v>3.353982300884956</v>
-      </c>
-      <c r="H17" t="n" s="664">
-        <v>1.0849650585412292</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9366191064819473</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9357831589427325</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.8111573546081396</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7513802411216787</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>2.309734513274336</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.2612327162747443</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="653">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="658">
+      <c r="A18" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>113.0</v>
       </c>
-      <c r="C18" t="n" s="659">
-        <v>0.8540618475374323</v>
-      </c>
-      <c r="D18" t="n" s="660">
-        <v>0.8329605646669889</v>
-      </c>
-      <c r="E18" t="n" s="661">
-        <v>0.5186118464823384</v>
-      </c>
-      <c r="F18" t="n" s="662">
-        <v>0.38764660458069766</v>
-      </c>
-      <c r="G18" t="n" s="663">
-        <v>2.911504424778761</v>
-      </c>
-      <c r="H18" t="n" s="664">
-        <v>1.2215148829855682</v>
+      <c r="C18" t="n" s="658">
+        <v>0.9349419175222998</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9357831589427325</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.8111573546081396</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7513802411216784</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>2.1946902654867255</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2454087616381648</v>
       </c>
     </row>
     <row r="19">
@@ -7203,74 +7188,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="668">
+      <c r="A21" t="s" s="667">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="682">
+      <c r="B22" t="s" s="681">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="682">
+      <c r="C22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="682">
+      <c r="D22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="682">
+      <c r="E22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="682">
+      <c r="F22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="682">
+      <c r="G22" t="s" s="681">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="678">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="683">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="C23" t="n" s="684">
-        <v>0.11504424778761062</v>
-      </c>
-      <c r="D23" t="n" s="685">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.19469026548672566</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.6548672566371682</v>
-      </c>
-      <c r="G23" t="n" s="688">
+      <c r="A23" t="s" s="677">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.1504424778761062</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.061946902654867256</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.2831858407079646</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.336283185840708</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="G23" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="678">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="683">
-        <v>0.08849557522123894</v>
-      </c>
-      <c r="C24" t="n" s="684">
-        <v>0.07964601769911504</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.46017699115044247</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.35398230088495575</v>
-      </c>
-      <c r="G24" t="n" s="688">
+      <c r="A24" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.1415929203539823</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.10619469026548672</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.3274336283185841</v>
+      </c>
+      <c r="E24" t="n" s="685">
+        <v>0.26548672566371684</v>
+      </c>
+      <c r="F24" t="n" s="686">
+        <v>0.1592920353982301</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,7 +7285,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="690">
+      <c r="A1" t="s" s="689">
         <v>49</v>
       </c>
     </row>
@@ -7315,66 +7300,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="704">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="718">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="718">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="718">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="718">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="718">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="718">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="718">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="718">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="718">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="719">
-        <v>0.739044467212004</v>
-      </c>
-      <c r="B6" t="n" s="720">
-        <v>0.7576792990925786</v>
-      </c>
-      <c r="C6" t="n" s="721">
-        <v>0.8532551396751792</v>
-      </c>
-      <c r="D6" t="n" s="722">
-        <v>0.23819754171888144</v>
-      </c>
-      <c r="E6" t="n" s="723">
-        <v>3.1267625764339857</v>
-      </c>
-      <c r="F6" t="n" s="724">
-        <v>0.03666001230113709</v>
-      </c>
-      <c r="G6" t="n" s="725">
-        <v>2.9176991150442477</v>
-      </c>
-      <c r="H6" t="n" s="726">
-        <v>0.7198995575395489</v>
-      </c>
-      <c r="I6" t="n" s="727">
-        <v>0.1767872377200544</v>
+      <c r="A6" t="n" s="718">
+        <v>0.7277643471409777</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.7443695546804294</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.8427899309211357</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.24445284259101704</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>2.911897108929545</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.035842249877537175</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>2.538839724680433</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.724541641725863</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.17153437765422175</v>
       </c>
     </row>
     <row r="7">
@@ -7388,325 +7373,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="731">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="745">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="745">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="745">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="745">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="745">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="745">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="745">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="745">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="741">
+      <c r="A11" t="s" s="740">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.7007495393726954</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.7016754546525316</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.7999739602412563</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.22720650776003723</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>2.352054048503675</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.040916483695978334</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.04025377342733969</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.17153437765422175</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.647139699611897</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.6862696727024801</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.7925170621817238</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.2147201381557266</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>2.1874508550512877</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.04875376700446079</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.042121061505275136</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.16505348439054135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.6731063016103623</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.6951847353071104</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.7917046674491172</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.22184102341124</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>2.28067559545461</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.04492430000609895</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.04008197112642102</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.1781753638780622</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="746">
-        <v>0.7175453334205516</v>
-      </c>
-      <c r="C11" t="n" s="747">
-        <v>0.7278655804197391</v>
-      </c>
-      <c r="D11" t="n" s="748">
-        <v>0.8322253326126674</v>
-      </c>
-      <c r="E11" t="n" s="749">
-        <v>0.22909924969139997</v>
-      </c>
-      <c r="F11" t="n" s="750">
-        <v>2.6746546120200314</v>
-      </c>
-      <c r="G11" t="n" s="751">
-        <v>0.039719507248037585</v>
-      </c>
-      <c r="H11" t="n" s="752">
-        <v>0.042491811164319986</v>
-      </c>
-      <c r="I11" t="n" s="753">
-        <v>0.16574678465518433</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="741">
+      <c r="B14" t="n" s="745">
+        <v>0.7177383465577438</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.733497919693677</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.8328711034780055</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.2559742425963459</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>2.7523159250786304</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.037298009183615165</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.07347408282296758</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.16264728934842632</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>0.7263759904575274</v>
-      </c>
-      <c r="C12" t="n" s="747">
-        <v>0.742015027414314</v>
-      </c>
-      <c r="D12" t="n" s="748">
-        <v>0.841680166092141</v>
-      </c>
-      <c r="E12" t="n" s="749">
-        <v>0.24218150858657442</v>
-      </c>
-      <c r="F12" t="n" s="750">
-        <v>2.8761947642817245</v>
-      </c>
-      <c r="G12" t="n" s="751">
-        <v>0.03855590259302041</v>
-      </c>
-      <c r="H12" t="n" s="752">
-        <v>0.0420654045059324</v>
-      </c>
-      <c r="I12" t="n" s="753">
-        <v>0.19959397204283888</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="741">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="746">
-        <v>0.7101959129069296</v>
-      </c>
-      <c r="C13" t="n" s="747">
-        <v>0.7217771009053778</v>
-      </c>
-      <c r="D13" t="n" s="748">
-        <v>0.8190594892021105</v>
-      </c>
-      <c r="E13" t="n" s="749">
-        <v>0.2237525145911921</v>
-      </c>
-      <c r="F13" t="n" s="750">
-        <v>2.5942404570369497</v>
-      </c>
-      <c r="G13" t="n" s="751">
-        <v>0.04037755568391502</v>
-      </c>
-      <c r="H13" t="n" s="752">
-        <v>0.03886867448782122</v>
-      </c>
-      <c r="I13" t="n" s="753">
+      <c r="B15" t="n" s="745">
+        <v>0.7299431312981624</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.7506355817612695</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8408013916329732</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.27340071320330195</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>3.010195227783638</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.0358369844341058</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.0684287180478776</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.18414246725328076</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="745">
+        <v>0.7199677382743357</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.7391783553884995</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8466302899069043</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.2615864672375069</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>2.834037629390466</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.03636938893945783</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.07353139338347349</v>
+      </c>
+      <c r="I16" t="n" s="752">
         <v>0.17153437765422175</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="741">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="746">
-        <v>0.7207123925385821</v>
-      </c>
-      <c r="C14" t="n" s="747">
-        <v>0.730486840996992</v>
-      </c>
-      <c r="D14" t="n" s="748">
-        <v>0.8225568550344677</v>
-      </c>
-      <c r="E14" t="n" s="749">
-        <v>0.2314519884593451</v>
-      </c>
-      <c r="F14" t="n" s="750">
-        <v>2.7103939699984703</v>
-      </c>
-      <c r="G14" t="n" s="751">
-        <v>0.03838360858815091</v>
-      </c>
-      <c r="H14" t="n" s="752">
-        <v>0.03583481790221835</v>
-      </c>
-      <c r="I14" t="n" s="753">
-        <v>0.1722276779188647</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="741">
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.7296245634072165</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.7461503743258664</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8456452079273491</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.26869445916594464</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>2.9393400614413294</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.03446049851322345</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.06824653004953679</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.17292250381222957</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="746">
-        <v>0.7014110384291641</v>
-      </c>
-      <c r="C15" t="n" s="747">
-        <v>0.7242078512496346</v>
-      </c>
-      <c r="D15" t="n" s="748">
-        <v>0.8157871289070271</v>
-      </c>
-      <c r="E15" t="n" s="749">
-        <v>0.22586765157066171</v>
-      </c>
-      <c r="F15" t="n" s="750">
-        <v>2.6259190282648515</v>
-      </c>
-      <c r="G15" t="n" s="751">
-        <v>0.041809840746667985</v>
-      </c>
-      <c r="H15" t="n" s="752">
-        <v>0.0409889533338307</v>
-      </c>
-      <c r="I15" t="n" s="753">
-        <v>0.16505348439054138</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="741">
+      <c r="B18" t="n" s="745">
+        <v>0.6909376020386787</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7115176395831425</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8002759465514904</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.23565051731127382</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.466416451095999</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.03946793752530259</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.06644727432822169</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.16264728934842632</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="746">
-        <v>0.7098154975421814</v>
-      </c>
-      <c r="C16" t="n" s="747">
-        <v>0.7320693369709302</v>
-      </c>
-      <c r="D16" t="n" s="748">
-        <v>0.8228318243709903</v>
-      </c>
-      <c r="E16" t="n" s="749">
-        <v>0.23288756956744885</v>
-      </c>
-      <c r="F16" t="n" s="750">
-        <v>2.73230890669465</v>
-      </c>
-      <c r="G16" t="n" s="751">
-        <v>0.04068197131818852</v>
-      </c>
-      <c r="H16" t="n" s="752">
-        <v>0.0410961839714143</v>
-      </c>
-      <c r="I16" t="n" s="753">
-        <v>0.1669748178530321</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="741">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="746">
-        <v>0.6992981218475681</v>
-      </c>
-      <c r="C17" t="n" s="747">
-        <v>0.7395240603226195</v>
-      </c>
-      <c r="D17" t="n" s="748">
-        <v>0.7993738085287747</v>
-      </c>
-      <c r="E17" t="n" s="749">
-        <v>0.23980876113226268</v>
-      </c>
-      <c r="F17" t="n" s="750">
-        <v>2.8391261827813232</v>
-      </c>
-      <c r="G17" t="n" s="751">
-        <v>0.04314907455092458</v>
-      </c>
-      <c r="H17" t="n" s="752">
-        <v>0.03350166136735245</v>
-      </c>
-      <c r="I17" t="n" s="753">
-        <v>0.18156171009022642</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="741">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="746">
-        <v>0.7195192597050859</v>
-      </c>
-      <c r="C18" t="n" s="747">
-        <v>0.7451800944413135</v>
-      </c>
-      <c r="D18" t="n" s="748">
-        <v>0.8038767938004533</v>
-      </c>
-      <c r="E18" t="n" s="749">
-        <v>0.2452412589280996</v>
-      </c>
-      <c r="F18" t="n" s="750">
-        <v>2.9243402033586188</v>
-      </c>
-      <c r="G18" t="n" s="751">
-        <v>0.0401040213730014</v>
-      </c>
-      <c r="H18" t="n" s="752">
-        <v>0.03251025671877438</v>
-      </c>
-      <c r="I18" t="n" s="753">
-        <v>0.21371753701553836</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="741">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="746">
-        <v>0.732143405378853</v>
-      </c>
-      <c r="C19" t="n" s="747">
-        <v>0.7535191603763248</v>
-      </c>
-      <c r="D19" t="n" s="748">
-        <v>0.8558854968360489</v>
-      </c>
-      <c r="E19" t="n" s="749">
-        <v>0.25355249854194006</v>
-      </c>
-      <c r="F19" t="n" s="750">
-        <v>3.057110489913906</v>
-      </c>
-      <c r="G19" t="n" s="751">
-        <v>0.0379164833495865</v>
-      </c>
-      <c r="H19" t="n" s="752">
-        <v>0.046329705398759156</v>
-      </c>
-      <c r="I19" t="n" s="753">
-        <v>0.19568527506292588</v>
+      <c r="B19" t="n" s="745">
+        <v>0.6977352314598934</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7175305206676661</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8049658172548367</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.24100151447777643</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>2.54020548472591</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.03858581376007659</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.06619812931430613</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.17153437765422175</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="741">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="746">
-        <v>0.7393142579025566</v>
-      </c>
-      <c r="C20" t="n" s="747">
-        <v>0.7579597964480365</v>
-      </c>
-      <c r="D20" t="n" s="748">
-        <v>0.8546567735091952</v>
-      </c>
-      <c r="E20" t="n" s="749">
-        <v>0.2581324161198901</v>
-      </c>
-      <c r="F20" t="n" s="750">
-        <v>3.1315450298128296</v>
-      </c>
-      <c r="G20" t="n" s="751">
-        <v>0.03664878324195384</v>
-      </c>
-      <c r="H20" t="n" s="752">
-        <v>0.042925486110185526</v>
-      </c>
-      <c r="I20" t="n" s="753">
-        <v>0.19959397204283888</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7715,595 +7676,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="756">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.7105864536829317</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.666692876792286</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.695277281605176</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.6697897557043757</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.584070796460177</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.4950769008954597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.7922795192857259</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.7344801966154311</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.7720908547703926</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.6471906712713845</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>1.8761061946902655</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>1.7885186576108167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.7601442171003135</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.6958215839412747</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.7343243007769148</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.5688609668219824</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>2.168141592920354</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>2.026179792417497</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.4353218002369284</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.5105155647525192</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.4094358267877072</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.3202130049318878</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>3.566371681415929</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>0.8543596828984419</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.3547171493036443</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.41590890374077466</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.30295139413184885</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.21645524244031675</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>3.8849557522123894</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.9613254650795259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.4455093726429429</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.4800473278889894</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.3529118338282106</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.29764527905047083</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>3.353982300884956</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.0849650585412292</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.41529851663317613</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.4414587118682846</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.32059551013208487</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.24309101214396803</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>2.911504424778761</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.2215148829855682</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.6180103431720142</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.6208511474363203</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.5908175101430718</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.47520429357659566</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>2.309734513274336</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.2612327162747443</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="771">
+        <v>113.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.5852327326731563</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.5918010898300463</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.556436749090364</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.4372591615048075</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>2.1946902654867255</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.2454087616381648</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="757">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="771">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="771">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="771">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="771">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="771">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="771">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="771">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="767">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.415929203539823</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.584070796460177</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.415929203539823</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.07079646017699115</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.02654867256637168</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.23893805309734514</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.20353982300884957</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.04424778761061947</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.415929203539823</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.035398230088495575</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.02654867256637168</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C25" t="n" s="773">
-        <v>0.5409993569939892</v>
-      </c>
-      <c r="D25" t="n" s="774">
-        <v>0.619110645986304</v>
-      </c>
-      <c r="E25" t="n" s="775">
-        <v>0.5670496735366722</v>
-      </c>
-      <c r="F25" t="n" s="776">
-        <v>0.4487517499041982</v>
-      </c>
-      <c r="G25" t="n" s="777">
-        <v>3.566371681415929</v>
-      </c>
-      <c r="H25" t="n" s="778">
-        <v>0.8543596828984419</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="767">
+      <c r="B40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.04424778761061947</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.008849557522123894</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.3805309734513274</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.4690265486725664</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.09734513274336283</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C26" t="n" s="773">
-        <v>0.46097111816622566</v>
-      </c>
-      <c r="D26" t="n" s="774">
-        <v>0.5351145089101126</v>
-      </c>
-      <c r="E26" t="n" s="775">
-        <v>0.460256815709099</v>
-      </c>
-      <c r="F26" t="n" s="776">
-        <v>0.34616389567498307</v>
-      </c>
-      <c r="G26" t="n" s="777">
-        <v>3.8849557522123894</v>
-      </c>
-      <c r="H26" t="n" s="778">
-        <v>0.9613254650795259</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="767">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C27" t="n" s="773">
-        <v>0.5863262946313802</v>
-      </c>
-      <c r="D27" t="n" s="774">
-        <v>0.6534399692312982</v>
-      </c>
-      <c r="E27" t="n" s="775">
-        <v>0.6281094624499285</v>
-      </c>
-      <c r="F27" t="n" s="776">
-        <v>0.47978585032957194</v>
-      </c>
-      <c r="G27" t="n" s="777">
-        <v>3.4070796460176993</v>
-      </c>
-      <c r="H27" t="n" s="778">
-        <v>1.0319638710245014</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="767">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C28" t="n" s="773">
-        <v>0.5230073245043739</v>
-      </c>
-      <c r="D28" t="n" s="774">
-        <v>0.6040046180716843</v>
-      </c>
-      <c r="E28" t="n" s="775">
-        <v>0.5759416846811677</v>
-      </c>
-      <c r="F28" t="n" s="776">
-        <v>0.3814795967505475</v>
-      </c>
-      <c r="G28" t="n" s="777">
-        <v>3.504424778761062</v>
-      </c>
-      <c r="H28" t="n" s="778">
-        <v>1.2329109993173366</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="767">
+      <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.008849557522123894</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.035398230088495575</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.36283185840707965</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.24778761061946902</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.34513274336283184</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="796">
+        <v>0.017699115044247787</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.017699115044247787</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.19469026548672566</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.6548672566371682</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.08849557522123894</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.07964601769911504</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.017699115044247787</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.46017699115044247</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.35398230088495575</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C29" t="n" s="773">
-        <v>0.6360458441732281</v>
-      </c>
-      <c r="D29" t="n" s="774">
-        <v>0.6398594907309084</v>
-      </c>
-      <c r="E29" t="n" s="775">
-        <v>0.6178388663416905</v>
-      </c>
-      <c r="F29" t="n" s="776">
-        <v>0.5127435024789879</v>
-      </c>
-      <c r="G29" t="n" s="777">
-        <v>2.309734513274336</v>
-      </c>
-      <c r="H29" t="n" s="778">
-        <v>1.2612327162747443</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="767">
+      <c r="B44" t="n" s="796">
+        <v>0.1504424778761062</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.061946902654867256</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.2831858407079646</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.336283185840708</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.168141592920354</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C30" t="n" s="773">
-        <v>0.5886588323884642</v>
-      </c>
-      <c r="D30" t="n" s="774">
-        <v>0.5947873056406672</v>
-      </c>
-      <c r="E30" t="n" s="775">
-        <v>0.5631587547163422</v>
-      </c>
-      <c r="F30" t="n" s="776">
-        <v>0.45728029021926475</v>
-      </c>
-      <c r="G30" t="n" s="777">
-        <v>2.1946902654867255</v>
-      </c>
-      <c r="H30" t="n" s="778">
-        <v>1.2454087616381648</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="767">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C31" t="n" s="773">
-        <v>0.6840753563938522</v>
-      </c>
-      <c r="D31" t="n" s="774">
-        <v>0.5503490048803054</v>
-      </c>
-      <c r="E31" t="n" s="775">
-        <v>0.5676114193484476</v>
-      </c>
-      <c r="F31" t="n" s="776">
-        <v>0.5127538429886882</v>
-      </c>
-      <c r="G31" t="n" s="777">
-        <v>1.8761061946902655</v>
-      </c>
-      <c r="H31" t="n" s="778">
-        <v>1.7885186576108167</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="767">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C32" t="n" s="773">
-        <v>0.6571880061610249</v>
-      </c>
-      <c r="D32" t="n" s="774">
-        <v>0.515469032454936</v>
-      </c>
-      <c r="E32" t="n" s="775">
-        <v>0.5288123384968773</v>
-      </c>
-      <c r="F32" t="n" s="776">
-        <v>0.4461413397860475</v>
-      </c>
-      <c r="G32" t="n" s="777">
-        <v>2.168141592920354</v>
-      </c>
-      <c r="H32" t="n" s="778">
-        <v>2.026179792417497</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="767">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C33" t="n" s="773">
-        <v>0.42743829121338894</v>
-      </c>
-      <c r="D33" t="n" s="774">
-        <v>0.46210576946869997</v>
-      </c>
-      <c r="E33" t="n" s="775">
-        <v>0.34655993641767874</v>
-      </c>
-      <c r="F33" t="n" s="776">
-        <v>0.2926943024077507</v>
-      </c>
-      <c r="G33" t="n" s="777">
-        <v>3.353982300884956</v>
-      </c>
-      <c r="H33" t="n" s="778">
-        <v>1.0849650585412292</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="767">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="772">
-        <v>113.0</v>
-      </c>
-      <c r="C34" t="n" s="773">
-        <v>0.40082550847478615</v>
-      </c>
-      <c r="D34" t="n" s="774">
-        <v>0.43269988568688256</v>
-      </c>
-      <c r="E34" t="n" s="775">
-        <v>0.32389325997385715</v>
-      </c>
-      <c r="F34" t="n" s="776">
-        <v>0.24463521764449886</v>
-      </c>
-      <c r="G34" t="n" s="777">
-        <v>2.911504424778761</v>
-      </c>
-      <c r="H34" t="n" s="778">
-        <v>1.2215148829855682</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="782">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="796">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="796">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="796">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="796">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="796">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="796">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="796">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="792">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="797">
+      <c r="B45" t="n" s="796">
+        <v>0.1415929203539823</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.10619469026548672</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.3274336283185841</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.26548672566371684</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.1592920353982301</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="798">
-        <v>0.04424778761061947</v>
-      </c>
-      <c r="D39" t="n" s="799">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="E39" t="n" s="800">
-        <v>0.3805309734513274</v>
-      </c>
-      <c r="F39" t="n" s="801">
-        <v>0.4690265486725664</v>
-      </c>
-      <c r="G39" t="n" s="802">
-        <v>0.09734513274336283</v>
-      </c>
-      <c r="H39" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="792">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="798">
-        <v>0.008849557522123894</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.36283185840707965</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.24778761061946902</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.34513274336283184</v>
-      </c>
-      <c r="H40" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="792">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="797">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="C41" t="n" s="798">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.4336283185840708</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.40707964601769914</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.08849557522123894</v>
-      </c>
-      <c r="H41" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="792">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="797">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="C42" t="n" s="798">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.04424778761061947</v>
-      </c>
-      <c r="E42" t="n" s="800">
-        <v>0.4778761061946903</v>
-      </c>
-      <c r="F42" t="n" s="801">
-        <v>0.12389380530973451</v>
-      </c>
-      <c r="G42" t="n" s="802">
-        <v>0.2920353982300885</v>
-      </c>
-      <c r="H42" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="792">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="797">
-        <v>0.1504424778761062</v>
-      </c>
-      <c r="C43" t="n" s="798">
-        <v>0.061946902654867256</v>
-      </c>
-      <c r="D43" t="n" s="799">
-        <v>0.2831858407079646</v>
-      </c>
-      <c r="E43" t="n" s="800">
-        <v>0.336283185840708</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.168141592920354</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="792">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="797">
-        <v>0.1415929203539823</v>
-      </c>
-      <c r="C44" t="n" s="798">
-        <v>0.10619469026548672</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.3274336283185841</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.26548672566371684</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.1592920353982301</v>
-      </c>
-      <c r="G44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="792">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="797">
-        <v>0.415929203539823</v>
-      </c>
-      <c r="C45" t="n" s="798">
-        <v>0.07079646017699115</v>
-      </c>
-      <c r="D45" t="n" s="799">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.23893805309734514</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.20353982300884957</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.04424778761061947</v>
-      </c>
-      <c r="H45" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="792">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="797">
-        <v>0.415929203539823</v>
-      </c>
-      <c r="C46" t="n" s="798">
-        <v>0.035398230088495575</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.02654867256637168</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.17699115044247787</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.17699115044247787</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.168141592920354</v>
-      </c>
-      <c r="H46" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="792">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="797">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="C47" t="n" s="798">
-        <v>0.11504424778761062</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.19469026548672566</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.6548672566371682</v>
-      </c>
-      <c r="G47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="792">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="797">
-        <v>0.08849557522123894</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.07964601769911504</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.017699115044247787</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.46017699115044247</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.35398230088495575</v>
-      </c>
-      <c r="G48" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="803">
+      <c r="H45" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
